--- a/BISolutionWorksheets.xlsx
+++ b/BISolutionWorksheets.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\INFO3300_Learn_By_Doing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cornel Amler\Documents\GitHub\INFO3300_Learn_By_Doing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="22980" windowHeight="12105" tabRatio="641" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="22980" windowHeight="12108" tabRatio="641" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Members" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="398">
   <si>
     <t>Object Name</t>
   </si>
@@ -915,12 +915,318 @@
   </si>
   <si>
     <t>Tues-Sun</t>
+  </si>
+  <si>
+    <t>ColorList</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>PersonCategory</t>
+  </si>
+  <si>
+    <t>PrimaryLanguage</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>ContactID</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>EMailAddress</t>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+  </si>
+  <si>
+    <t>CellPhone</t>
+  </si>
+  <si>
+    <t>GMTDifference</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Pronunciation</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>nvarchar(12)</t>
+  </si>
+  <si>
+    <t>Nation</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>BaseCurrency</t>
+  </si>
+  <si>
+    <t>CustomerOrder</t>
+  </si>
+  <si>
+    <t>PurchaseOrderNo</t>
+  </si>
+  <si>
+    <t>BillAddress</t>
+  </si>
+  <si>
+    <t>BillCity</t>
+  </si>
+  <si>
+    <t>BillState</t>
+  </si>
+  <si>
+    <t>BillPostalCode</t>
+  </si>
+  <si>
+    <t>BillNation</t>
+  </si>
+  <si>
+    <t>DeliveryLocation</t>
+  </si>
+  <si>
+    <t>DeliveryAddress</t>
+  </si>
+  <si>
+    <t>DeliveryCity</t>
+  </si>
+  <si>
+    <t>DeliveryState</t>
+  </si>
+  <si>
+    <t>DeliveryPostal</t>
+  </si>
+  <si>
+    <t>DeliveryNation</t>
+  </si>
+  <si>
+    <t>PriceAdjustment</t>
+  </si>
+  <si>
+    <t>OrderCurrency</t>
+  </si>
+  <si>
+    <t>nvarchar(5)</t>
+  </si>
+  <si>
+    <t>OrderExchangeDate</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>FactoryID</t>
+  </si>
+  <si>
+    <t>MaxWorkers</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>ModelID</t>
+  </si>
+  <si>
+    <t>BasePrice</t>
+  </si>
+  <si>
+    <t>ModelDescription</t>
+  </si>
+  <si>
+    <t>nvarchar(250)</t>
+  </si>
+  <si>
+    <t>SizeLow</t>
+  </si>
+  <si>
+    <t>SizeHigh</t>
+  </si>
+  <si>
+    <t>SizeIncrement</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>ListPrice</t>
+  </si>
+  <si>
+    <t>ItemSize</t>
+  </si>
+  <si>
+    <t>OrderItem</t>
+  </si>
+  <si>
+    <t>OrderQuantity</t>
+  </si>
+  <si>
+    <t>SalePrice</t>
+  </si>
+  <si>
+    <t>ProductionBatch</t>
+  </si>
+  <si>
+    <t>StartDateTime</t>
+  </si>
+  <si>
+    <t>QuantityProduced</t>
+  </si>
+  <si>
+    <t>QualityRating</t>
+  </si>
+  <si>
+    <t>EstEndTime</t>
+  </si>
+  <si>
+    <t>ActualEndTime</t>
+  </si>
+  <si>
+    <t>ProductionCost</t>
+  </si>
+  <si>
+    <t>CostCurrency</t>
+  </si>
+  <si>
+    <t>CostExchangeDate</t>
+  </si>
+  <si>
+    <t>Shipment</t>
+  </si>
+  <si>
+    <t>ShipmentID</t>
+  </si>
+  <si>
+    <t>ShipMethod</t>
+  </si>
+  <si>
+    <t>ShipDate</t>
+  </si>
+  <si>
+    <t>ShipState</t>
+  </si>
+  <si>
+    <t>ShipNation</t>
+  </si>
+  <si>
+    <t>ShipPostal</t>
+  </si>
+  <si>
+    <t>ShipCost</t>
+  </si>
+  <si>
+    <t>ShipCurrency</t>
+  </si>
+  <si>
+    <t>ShipExchangeDate</t>
+  </si>
+  <si>
+    <t>CustomsID</t>
+  </si>
+  <si>
+    <t>CustomsComments</t>
+  </si>
+  <si>
+    <t>nvarchar(1023)</t>
+  </si>
+  <si>
+    <t>ShipmentItem</t>
+  </si>
+  <si>
+    <t>QuantityShipped</t>
+  </si>
+  <si>
+    <t>ConditionCategory</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>ComplianceID</t>
+  </si>
+  <si>
+    <t>DateObserved</t>
+  </si>
+  <si>
+    <t>OverallRating</t>
+  </si>
+  <si>
+    <t>WorkerCheck</t>
+  </si>
+  <si>
+    <t>WorkerNo</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>nvarchar(7)</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>AgeDocuments</t>
+  </si>
+  <si>
+    <t>nvarchar(150)</t>
+  </si>
+  <si>
+    <t>WorkerHealth</t>
+  </si>
+  <si>
+    <t>WorkerComments</t>
+  </si>
+  <si>
+    <t>sysdiagrams</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nvarchar(128)</t>
+  </si>
+  <si>
+    <t>principal_id</t>
+  </si>
+  <si>
+    <t>diagram_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>varbinary(-1)</t>
+  </si>
+  <si>
+    <t>WorkingConditions</t>
+  </si>
+  <si>
+    <t>ConditionComments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1360,134 +1666,134 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A27:I91" totalsRowShown="0">
-  <autoFilter ref="A27:I91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A27:I91" totalsRowShown="0">
+  <autoFilter ref="A27:I91" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="TABLE_NAME"/>
-    <tableColumn id="2" name="COLUMN_NAME"/>
-    <tableColumn id="3" name="DataType"/>
-    <tableColumn id="4" name="CONSTRAINT_NAME"/>
-    <tableColumn id="5" name="CONSTRAINT_TYPE"/>
-    <tableColumn id="6" name="IS_NULLABLE"/>
-    <tableColumn id="7" name="CHECK_CLAUSE"/>
-    <tableColumn id="8" name="COLUMN_DEFAULT"/>
-    <tableColumn id="9" name="Is_Identity"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TABLE_NAME"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="COLUMN_NAME"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DataType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CONSTRAINT_NAME"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CONSTRAINT_TYPE"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="IS_NULLABLE"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CHECK_CLAUSE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="COLUMN_DEFAULT"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Is_Identity"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:K4" totalsRowShown="0">
-  <autoFilter ref="A2:K4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A2:K4" totalsRowShown="0">
+  <autoFilter ref="A2:K4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="CustomerID"/>
-    <tableColumn id="2" name="CompanyName"/>
-    <tableColumn id="3" name="ContactName"/>
-    <tableColumn id="4" name="ContactTitle"/>
-    <tableColumn id="5" name="Address"/>
-    <tableColumn id="6" name="City"/>
-    <tableColumn id="7" name="Region"/>
-    <tableColumn id="8" name="PostalCode"/>
-    <tableColumn id="9" name="Country"/>
-    <tableColumn id="10" name="Phone"/>
-    <tableColumn id="11" name="Fax"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CustomerID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="CompanyName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ContactName"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ContactTitle"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Address"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="City"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Region"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="PostalCode"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Country"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Phone"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Fax"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A6:R8" totalsRowShown="0">
-  <autoFilter ref="A6:R8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A6:R8" totalsRowShown="0">
+  <autoFilter ref="A6:R8" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="EmployeeID"/>
-    <tableColumn id="2" name="LastName"/>
-    <tableColumn id="3" name="FirstName"/>
-    <tableColumn id="4" name="Title"/>
-    <tableColumn id="5" name="TitleOfCourtesy"/>
-    <tableColumn id="6" name="BirthDate" dataDxfId="9"/>
-    <tableColumn id="7" name="HireDate" dataDxfId="8"/>
-    <tableColumn id="8" name="Address"/>
-    <tableColumn id="9" name="City"/>
-    <tableColumn id="10" name="Region"/>
-    <tableColumn id="11" name="PostalCode"/>
-    <tableColumn id="12" name="Country"/>
-    <tableColumn id="13" name="HomePhone"/>
-    <tableColumn id="14" name="Extension"/>
-    <tableColumn id="15" name="Photo"/>
-    <tableColumn id="16" name="Notes"/>
-    <tableColumn id="17" name="ReportsTo"/>
-    <tableColumn id="18" name="PhotoPath"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="EmployeeID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LastName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="FirstName"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Title"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="TitleOfCourtesy"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="BirthDate" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="HireDate" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Address"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="City"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Region"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="PostalCode"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Country"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="HomePhone"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Extension"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Photo"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="Notes"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="ReportsTo"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="PhotoPath"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A10:N12" totalsRowShown="0">
-  <autoFilter ref="A10:N12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A10:N12" totalsRowShown="0">
+  <autoFilter ref="A10:N12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="OrderID"/>
-    <tableColumn id="2" name="CustomerID"/>
-    <tableColumn id="3" name="EmployeeID"/>
-    <tableColumn id="4" name="OrderDate" dataDxfId="7"/>
-    <tableColumn id="5" name="RequiredDate" dataDxfId="6"/>
-    <tableColumn id="6" name="ShippedDate" dataDxfId="5"/>
-    <tableColumn id="7" name="ShipVia"/>
-    <tableColumn id="8" name="Freight"/>
-    <tableColumn id="9" name="ShipName"/>
-    <tableColumn id="10" name="ShipAddress"/>
-    <tableColumn id="11" name="ShipCity"/>
-    <tableColumn id="12" name="ShipRegion"/>
-    <tableColumn id="13" name="ShipPostalCode"/>
-    <tableColumn id="14" name="ShipCountry"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="OrderID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="CustomerID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="EmployeeID"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="OrderDate" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="RequiredDate" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="ShippedDate" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="ShipVia"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Freight"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="ShipName"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="ShipAddress"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="ShipCity"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="ShipRegion"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="ShipPostalCode"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="ShipCountry"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A14:E16" totalsRowShown="0">
-  <autoFilter ref="A14:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A14:E16" totalsRowShown="0">
+  <autoFilter ref="A14:E16" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="OrderID"/>
-    <tableColumn id="2" name="ProductID"/>
-    <tableColumn id="3" name="UnitPrice"/>
-    <tableColumn id="4" name="Quantity" dataDxfId="4"/>
-    <tableColumn id="5" name="Discount" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="OrderID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ProductID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="UnitPrice"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Quantity" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Discount" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A18:J20" totalsRowShown="0">
-  <autoFilter ref="A18:J20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A18:J20" totalsRowShown="0">
+  <autoFilter ref="A18:J20" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="ProductID"/>
-    <tableColumn id="2" name="ProductName"/>
-    <tableColumn id="3" name="SupplierID"/>
-    <tableColumn id="4" name="CategoryID" dataDxfId="2"/>
-    <tableColumn id="5" name="QuantityPerUnit" dataDxfId="1"/>
-    <tableColumn id="6" name="UnitPrice" dataDxfId="0"/>
-    <tableColumn id="7" name="UnitsInStock"/>
-    <tableColumn id="8" name="UnitsOnOrder"/>
-    <tableColumn id="9" name="ReorderLevel"/>
-    <tableColumn id="10" name="Discontinued"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="ProductID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="ProductName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="SupplierID"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="CategoryID" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="QuantityPerUnit" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="UnitPrice" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="UnitsInStock"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="UnitsOnOrder"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="ReorderLevel"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Discontinued"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A22:D24" totalsRowShown="0">
-  <autoFilter ref="A22:D24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table7" displayName="Table7" ref="A22:D24" totalsRowShown="0">
+  <autoFilter ref="A22:D24" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="CategoryID"/>
-    <tableColumn id="2" name="CategoryName"/>
-    <tableColumn id="3" name="Description"/>
-    <tableColumn id="4" name="Picture"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="CategoryID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="CategoryName"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Picture"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1813,18 +2119,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1889,17 +2195,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -1980,17 +2286,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -2051,7 +2357,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="15.5" thickBot="1">
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2131,7 +2437,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:12" ht="15.5" thickBot="1">
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" s="31" t="s">
         <v>25</v>
       </c>
@@ -2173,7 +2479,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="29.5">
+    <row r="10" spans="1:12" ht="28.8">
       <c r="A10" s="16" t="s">
         <v>27</v>
       </c>
@@ -2209,20 +2515,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:E52"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="35.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
-    <col min="3" max="3" width="53.1328125" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -2719,7 +3025,7 @@
       </c>
       <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="12.65" customHeight="1">
+    <row r="47" spans="1:5" ht="12.6" customHeight="1">
       <c r="A47" s="64" t="s">
         <v>27</v>
       </c>
@@ -2785,35 +3091,35 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.1328125" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" customWidth="1"/>
-    <col min="10" max="10" width="13.40625" customWidth="1"/>
-    <col min="11" max="11" width="12.1328125" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
-    <col min="13" max="13" width="15.40625" customWidth="1"/>
-    <col min="14" max="14" width="12.7265625" customWidth="1"/>
-    <col min="17" max="17" width="11.26953125" customWidth="1"/>
-    <col min="18" max="18" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1328125" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" customWidth="1"/>
+    <col min="17" max="17" width="11.21875" customWidth="1"/>
+    <col min="18" max="18" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16">
+    <row r="1" spans="1:18" ht="15.6">
       <c r="A1" s="60" t="s">
         <v>281</v>
       </c>
@@ -3458,7 +3764,7 @@
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
     </row>
-    <row r="26" spans="1:10" ht="16">
+    <row r="26" spans="1:10" ht="15.6">
       <c r="A26" s="60" t="s">
         <v>115</v>
       </c>
@@ -5372,22 +5678,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A3:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F65536"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="65.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="18.5">
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -5410,307 +5716,1411 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="A5" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="A6" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="A8" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
+      <c r="A9" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="A10" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="A11" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A12" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A13" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="A14" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="A15" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="41"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="40"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="38"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="38"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="38"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="40"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="38"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="40"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="38"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="40"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="38"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="40"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="38"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="40"/>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="A16" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="35" t="s">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>1</v>
+        <v>326</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>4</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>314</v>
+      </c>
+      <c r="B48" t="s">
+        <v>328</v>
+      </c>
+      <c r="D48" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>314</v>
+      </c>
+      <c r="B49" t="s">
+        <v>330</v>
+      </c>
+      <c r="D49" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>331</v>
+      </c>
+      <c r="B52" t="s">
+        <v>311</v>
+      </c>
+      <c r="D52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53" t="s">
+        <v>306</v>
+      </c>
+      <c r="D53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>331</v>
+      </c>
+      <c r="B54" t="s">
+        <v>333</v>
+      </c>
+      <c r="D54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>331</v>
+      </c>
+      <c r="B55" t="s">
+        <v>301</v>
+      </c>
+      <c r="D55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>331</v>
+      </c>
+      <c r="B56" t="s">
+        <v>313</v>
+      </c>
+      <c r="D56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>334</v>
+      </c>
+      <c r="B57" t="s">
+        <v>335</v>
+      </c>
+      <c r="D57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" t="s">
+        <v>336</v>
+      </c>
+      <c r="D58" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>334</v>
+      </c>
+      <c r="B59" t="s">
+        <v>337</v>
+      </c>
+      <c r="D59" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>334</v>
+      </c>
+      <c r="B60" t="s">
+        <v>339</v>
+      </c>
+      <c r="D60" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>334</v>
+      </c>
+      <c r="B61" t="s">
+        <v>340</v>
+      </c>
+      <c r="D61" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>334</v>
+      </c>
+      <c r="B62" t="s">
+        <v>341</v>
+      </c>
+      <c r="D62" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>342</v>
+      </c>
+      <c r="B63" t="s">
+        <v>343</v>
+      </c>
+      <c r="D63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>342</v>
+      </c>
+      <c r="B64" t="s">
+        <v>335</v>
+      </c>
+      <c r="D64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>342</v>
+      </c>
+      <c r="B65" t="s">
+        <v>344</v>
+      </c>
+      <c r="D65" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>342</v>
+      </c>
+      <c r="B66" t="s">
+        <v>297</v>
+      </c>
+      <c r="D66" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>342</v>
+      </c>
+      <c r="B67" t="s">
+        <v>345</v>
+      </c>
+      <c r="D67" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>346</v>
+      </c>
+      <c r="B68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="D69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" t="s">
+        <v>343</v>
+      </c>
+      <c r="D70" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" t="s">
+        <v>343</v>
+      </c>
+      <c r="D71" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>346</v>
+      </c>
+      <c r="B72" t="s">
+        <v>347</v>
+      </c>
+      <c r="D72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>346</v>
+      </c>
+      <c r="B73" t="s">
+        <v>348</v>
+      </c>
+      <c r="D73" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>349</v>
+      </c>
+      <c r="B74" t="s">
+        <v>332</v>
+      </c>
+      <c r="D74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>349</v>
+      </c>
+      <c r="B75" t="s">
+        <v>332</v>
+      </c>
+      <c r="D75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s">
+        <v>343</v>
+      </c>
+      <c r="D76" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>349</v>
+      </c>
+      <c r="B77" t="s">
+        <v>343</v>
+      </c>
+      <c r="D77" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" t="s">
+        <v>350</v>
+      </c>
+      <c r="D78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>349</v>
+      </c>
+      <c r="B79" t="s">
+        <v>351</v>
+      </c>
+      <c r="D79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>349</v>
+      </c>
+      <c r="B80" t="s">
+        <v>352</v>
+      </c>
+      <c r="D80" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>349</v>
+      </c>
+      <c r="B81" t="s">
+        <v>353</v>
+      </c>
+      <c r="D81" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>349</v>
+      </c>
+      <c r="B82" t="s">
+        <v>354</v>
+      </c>
+      <c r="D82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>349</v>
+      </c>
+      <c r="B83" t="s">
+        <v>355</v>
+      </c>
+      <c r="D83" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>349</v>
+      </c>
+      <c r="B84" t="s">
+        <v>356</v>
+      </c>
+      <c r="D84" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>349</v>
+      </c>
+      <c r="B85" t="s">
+        <v>357</v>
+      </c>
+      <c r="D85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>349</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>358</v>
+      </c>
+      <c r="B87" t="s">
+        <v>359</v>
+      </c>
+      <c r="D87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>358</v>
+      </c>
+      <c r="B88" t="s">
+        <v>360</v>
+      </c>
+      <c r="D88" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>358</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>358</v>
+      </c>
+      <c r="B90" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>358</v>
+      </c>
+      <c r="B91" t="s">
+        <v>361</v>
+      </c>
+      <c r="D91" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>358</v>
+      </c>
+      <c r="B92" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>358</v>
+      </c>
+      <c r="B93" t="s">
+        <v>202</v>
+      </c>
+      <c r="D93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>358</v>
+      </c>
+      <c r="B94" t="s">
+        <v>362</v>
+      </c>
+      <c r="D94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>358</v>
+      </c>
+      <c r="B95" t="s">
+        <v>363</v>
+      </c>
+      <c r="D95" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>358</v>
+      </c>
+      <c r="B96" t="s">
+        <v>364</v>
+      </c>
+      <c r="D96" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>358</v>
+      </c>
+      <c r="B97" t="s">
+        <v>365</v>
+      </c>
+      <c r="D97" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>358</v>
+      </c>
+      <c r="B98" t="s">
+        <v>366</v>
+      </c>
+      <c r="D98" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>358</v>
+      </c>
+      <c r="B99" t="s">
+        <v>367</v>
+      </c>
+      <c r="D99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>358</v>
+      </c>
+      <c r="B100" t="s">
+        <v>368</v>
+      </c>
+      <c r="D100" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>358</v>
+      </c>
+      <c r="B101" t="s">
+        <v>369</v>
+      </c>
+      <c r="D101" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>371</v>
+      </c>
+      <c r="B102" t="s">
+        <v>359</v>
+      </c>
+      <c r="D102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>371</v>
+      </c>
+      <c r="B103" t="s">
+        <v>359</v>
+      </c>
+      <c r="D103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>371</v>
+      </c>
+      <c r="B104" t="s">
+        <v>343</v>
+      </c>
+      <c r="D104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>371</v>
+      </c>
+      <c r="B105" t="s">
+        <v>343</v>
+      </c>
+      <c r="D105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>371</v>
+      </c>
+      <c r="B106" t="s">
+        <v>372</v>
+      </c>
+      <c r="D106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>371</v>
+      </c>
+      <c r="B107" t="s">
+        <v>171</v>
+      </c>
+      <c r="D107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>373</v>
+      </c>
+      <c r="B108" t="s">
+        <v>373</v>
+      </c>
+      <c r="D108" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>374</v>
+      </c>
+      <c r="B109" t="s">
+        <v>375</v>
+      </c>
+      <c r="D109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>374</v>
+      </c>
+      <c r="B110" t="s">
+        <v>376</v>
+      </c>
+      <c r="D110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>374</v>
+      </c>
+      <c r="B111" t="s">
+        <v>332</v>
+      </c>
+      <c r="D111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>374</v>
+      </c>
+      <c r="B112" t="s">
+        <v>301</v>
+      </c>
+      <c r="D112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>374</v>
+      </c>
+      <c r="B113" t="s">
+        <v>377</v>
+      </c>
+      <c r="D113" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>378</v>
+      </c>
+      <c r="B114" t="s">
+        <v>375</v>
+      </c>
+      <c r="D114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>378</v>
+      </c>
+      <c r="B115" t="s">
+        <v>375</v>
+      </c>
+      <c r="D115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>378</v>
+      </c>
+      <c r="B116" t="s">
+        <v>379</v>
+      </c>
+      <c r="D116" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>378</v>
+      </c>
+      <c r="B117" t="s">
+        <v>380</v>
+      </c>
+      <c r="D117" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>378</v>
+      </c>
+      <c r="B118" t="s">
+        <v>381</v>
+      </c>
+      <c r="D118" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>378</v>
+      </c>
+      <c r="B119" t="s">
+        <v>383</v>
+      </c>
+      <c r="D119" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>378</v>
+      </c>
+      <c r="B120" t="s">
+        <v>384</v>
+      </c>
+      <c r="D120" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>378</v>
+      </c>
+      <c r="B121" t="s">
+        <v>386</v>
+      </c>
+      <c r="D121" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>378</v>
+      </c>
+      <c r="B122" t="s">
+        <v>387</v>
+      </c>
+      <c r="D122" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>388</v>
+      </c>
+      <c r="B123" t="s">
+        <v>389</v>
+      </c>
+      <c r="D123" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>388</v>
+      </c>
+      <c r="B124" t="s">
+        <v>391</v>
+      </c>
+      <c r="D124" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>388</v>
+      </c>
+      <c r="B125" t="s">
+        <v>392</v>
+      </c>
+      <c r="D125" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>388</v>
+      </c>
+      <c r="B126" t="s">
+        <v>393</v>
+      </c>
+      <c r="D126" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>388</v>
+      </c>
+      <c r="B127" t="s">
+        <v>394</v>
+      </c>
+      <c r="D127" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>396</v>
+      </c>
+      <c r="B128" t="s">
+        <v>375</v>
+      </c>
+      <c r="D128" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>396</v>
+      </c>
+      <c r="B129" t="s">
+        <v>375</v>
+      </c>
+      <c r="D129" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>396</v>
+      </c>
+      <c r="B130" t="s">
+        <v>373</v>
+      </c>
+      <c r="D130" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>396</v>
+      </c>
+      <c r="B131" t="s">
+        <v>373</v>
+      </c>
+      <c r="D131" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>396</v>
+      </c>
+      <c r="B132" t="s">
+        <v>397</v>
+      </c>
+      <c r="D132" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5720,23 +7130,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E27" sqref="A4:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="28.40625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.40625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:5" ht="17.399999999999999">
       <c r="A2" s="43" t="s">
         <v>110</v>
       </c>
@@ -5937,21 +7347,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C30" sqref="A4:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18.5">
+    <row r="2" spans="1:3" ht="18">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -6110,12 +7520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BISolutionWorksheets.xlsx
+++ b/BISolutionWorksheets.xlsx
@@ -5682,7 +5682,7 @@
   <dimension ref="A3:E132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/BISolutionWorksheets.xlsx
+++ b/BISolutionWorksheets.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="22980" windowHeight="12108" tabRatio="641" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="22980" windowHeight="12108" tabRatio="641" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Members" sheetId="7" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="Estimated Hours" sheetId="5" r:id="rId4"/>
     <sheet name="Original Data Source" sheetId="9" r:id="rId5"/>
     <sheet name="Data Warehouse" sheetId="1" r:id="rId6"/>
-    <sheet name="ETL Objects" sheetId="2" r:id="rId7"/>
-    <sheet name="Cubes and Dimensions" sheetId="3" r:id="rId8"/>
-    <sheet name="Reports" sheetId="4" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="ETL Objects" sheetId="2" r:id="rId8"/>
+    <sheet name="Cubes and Dimensions" sheetId="3" r:id="rId9"/>
+    <sheet name="Reports" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="401">
   <si>
     <t>Object Name</t>
   </si>
@@ -917,317 +918,326 @@
     <t>Tues-Sun</t>
   </si>
   <si>
-    <t>ColorList</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
-    <t>PersonCategory</t>
-  </si>
-  <si>
-    <t>PrimaryLanguage</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>ContactID</t>
-  </si>
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>EMailAddress</t>
-  </si>
-  <si>
     <t>nvarchar(50)</t>
   </si>
   <si>
-    <t>CellPhone</t>
-  </si>
-  <si>
-    <t>GMTDifference</t>
-  </si>
-  <si>
-    <t>numeric</t>
-  </si>
-  <si>
-    <t>Pronunciation</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>nvarchar(12)</t>
-  </si>
-  <si>
-    <t>Nation</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>BaseCurrency</t>
-  </si>
-  <si>
-    <t>CustomerOrder</t>
-  </si>
-  <si>
-    <t>PurchaseOrderNo</t>
-  </si>
-  <si>
-    <t>BillAddress</t>
-  </si>
-  <si>
-    <t>BillCity</t>
-  </si>
-  <si>
-    <t>BillState</t>
-  </si>
-  <si>
-    <t>BillPostalCode</t>
-  </si>
-  <si>
-    <t>BillNation</t>
-  </si>
-  <si>
-    <t>DeliveryLocation</t>
-  </si>
-  <si>
-    <t>DeliveryAddress</t>
-  </si>
-  <si>
-    <t>DeliveryCity</t>
-  </si>
-  <si>
-    <t>DeliveryState</t>
-  </si>
-  <si>
-    <t>DeliveryPostal</t>
-  </si>
-  <si>
-    <t>DeliveryNation</t>
-  </si>
-  <si>
-    <t>PriceAdjustment</t>
-  </si>
-  <si>
-    <t>OrderCurrency</t>
-  </si>
-  <si>
     <t>nvarchar(5)</t>
   </si>
   <si>
-    <t>OrderExchangeDate</t>
-  </si>
-  <si>
-    <t>Factory</t>
-  </si>
-  <si>
-    <t>FactoryID</t>
-  </si>
-  <si>
-    <t>MaxWorkers</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>ModelID</t>
-  </si>
-  <si>
-    <t>BasePrice</t>
-  </si>
-  <si>
-    <t>ModelDescription</t>
-  </si>
-  <si>
-    <t>nvarchar(250)</t>
-  </si>
-  <si>
-    <t>SizeLow</t>
-  </si>
-  <si>
-    <t>SizeHigh</t>
-  </si>
-  <si>
-    <t>SizeIncrement</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>ItemID</t>
-  </si>
-  <si>
-    <t>ListPrice</t>
-  </si>
-  <si>
-    <t>ItemSize</t>
-  </si>
-  <si>
-    <t>OrderItem</t>
-  </si>
-  <si>
-    <t>OrderQuantity</t>
-  </si>
-  <si>
-    <t>SalePrice</t>
-  </si>
-  <si>
-    <t>ProductionBatch</t>
-  </si>
-  <si>
-    <t>StartDateTime</t>
-  </si>
-  <si>
-    <t>QuantityProduced</t>
-  </si>
-  <si>
-    <t>QualityRating</t>
-  </si>
-  <si>
-    <t>EstEndTime</t>
-  </si>
-  <si>
-    <t>ActualEndTime</t>
-  </si>
-  <si>
-    <t>ProductionCost</t>
-  </si>
-  <si>
-    <t>CostCurrency</t>
-  </si>
-  <si>
-    <t>CostExchangeDate</t>
-  </si>
-  <si>
-    <t>Shipment</t>
-  </si>
-  <si>
-    <t>ShipmentID</t>
-  </si>
-  <si>
-    <t>ShipMethod</t>
-  </si>
-  <si>
-    <t>ShipDate</t>
-  </si>
-  <si>
-    <t>ShipState</t>
-  </si>
-  <si>
-    <t>ShipNation</t>
-  </si>
-  <si>
-    <t>ShipPostal</t>
-  </si>
-  <si>
-    <t>ShipCost</t>
-  </si>
-  <si>
-    <t>ShipCurrency</t>
-  </si>
-  <si>
-    <t>ShipExchangeDate</t>
-  </si>
-  <si>
-    <t>CustomsID</t>
-  </si>
-  <si>
-    <t>CustomsComments</t>
-  </si>
-  <si>
-    <t>nvarchar(1023)</t>
-  </si>
-  <si>
-    <t>ShipmentItem</t>
-  </si>
-  <si>
-    <t>QuantityShipped</t>
-  </si>
-  <si>
-    <t>ConditionCategory</t>
-  </si>
-  <si>
-    <t>Compliance</t>
-  </si>
-  <si>
-    <t>ComplianceID</t>
-  </si>
-  <si>
-    <t>DateObserved</t>
-  </si>
-  <si>
-    <t>OverallRating</t>
-  </si>
-  <si>
-    <t>WorkerCheck</t>
-  </si>
-  <si>
-    <t>WorkerNo</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>nvarchar(7)</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>AgeDocuments</t>
-  </si>
-  <si>
     <t>nvarchar(150)</t>
   </si>
   <si>
-    <t>WorkerHealth</t>
-  </si>
-  <si>
-    <t>WorkerComments</t>
-  </si>
-  <si>
-    <t>sysdiagrams</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nvarchar(128)</t>
-  </si>
-  <si>
-    <t>principal_id</t>
-  </si>
-  <si>
-    <t>diagram_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>varbinary(-1)</t>
-  </si>
-  <si>
-    <t>WorkingConditions</t>
-  </si>
-  <si>
-    <t>ConditionComments</t>
+    <t>table</t>
+  </si>
+  <si>
+    <t>DWBroadclothBatch.dbo.factbatch</t>
+  </si>
+  <si>
+    <t>fact table</t>
+  </si>
+  <si>
+    <t>object name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.sales</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>source type</t>
+  </si>
+  <si>
+    <t>destination type</t>
+  </si>
+  <si>
+    <t>Factbatch.quantityproduced</t>
+  </si>
+  <si>
+    <t>Measure Column</t>
+  </si>
+  <si>
+    <t>factbatch.qualityrating</t>
+  </si>
+  <si>
+    <t>factbatch.startdate</t>
+  </si>
+  <si>
+    <t>factbatch.estimatedendtime</t>
+  </si>
+  <si>
+    <t>factbatch.actualendtime</t>
+  </si>
+  <si>
+    <t>factbatch.shippingdate</t>
+  </si>
+  <si>
+    <t>factbatch.productioncost</t>
+  </si>
+  <si>
+    <t>factbatch.shippingcost</t>
+  </si>
+  <si>
+    <t>factbatch.quantityshipped</t>
+  </si>
+  <si>
+    <t>factbatch.orderquantity</t>
+  </si>
+  <si>
+    <t>factbatch.ordersaleprice</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.productionbatch</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.shipment item</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.orderitem</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.shipment</t>
+  </si>
+  <si>
+    <t>Key Column</t>
+  </si>
+  <si>
+    <t>factbatch.itemID</t>
+  </si>
+  <si>
+    <t>factbatch.factoryID</t>
+  </si>
+  <si>
+    <t>key column</t>
+  </si>
+  <si>
+    <t>factbatch.shipmentID</t>
+  </si>
+  <si>
+    <t>factbatch.workerno</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Workercheck</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.factory</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.item</t>
+  </si>
+  <si>
+    <t>DWBroadclothBatch.dbo.DimShipment</t>
+  </si>
+  <si>
+    <t>Dimension Table</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Shipment</t>
+  </si>
+  <si>
+    <t>DimShipment.ShipmentKey</t>
+  </si>
+  <si>
+    <t>Dimension Key Column</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>DimShipment.Nation</t>
+  </si>
+  <si>
+    <t>Dimension Column</t>
+  </si>
+  <si>
+    <t>Shipment.ShipNation</t>
+  </si>
+  <si>
+    <t>DimShipment.State</t>
+  </si>
+  <si>
+    <t>Shipment.ShipState</t>
+  </si>
+  <si>
+    <t>DimShipment.City</t>
+  </si>
+  <si>
+    <t>Shipment.ShipCity</t>
+  </si>
+  <si>
+    <t>DimShipment.ShippingCurrency</t>
+  </si>
+  <si>
+    <t>Shipment.ShippingCurrency</t>
+  </si>
+  <si>
+    <t>DWBroadclothBatch.dbo.DimCompliance</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Compliance</t>
+  </si>
+  <si>
+    <t>DimCompliance.ComplianceKey</t>
+  </si>
+  <si>
+    <t>DimCompliance.ConditionCategory</t>
+  </si>
+  <si>
+    <t>Compliance.ConditionCategory</t>
+  </si>
+  <si>
+    <t>DimCompliance.OverallComplianceRating</t>
+  </si>
+  <si>
+    <t>Compliance.OverallRating</t>
+  </si>
+  <si>
+    <t>numeric(18,0)</t>
+  </si>
+  <si>
+    <t>decimal(18,0)</t>
+  </si>
+  <si>
+    <t>DimCompliance.Age</t>
+  </si>
+  <si>
+    <t>Compliance.Age</t>
+  </si>
+  <si>
+    <t>DimCompliance.AgeDocuments</t>
+  </si>
+  <si>
+    <t>Compliance.AgeDocuments</t>
+  </si>
+  <si>
+    <t>DimCompliance.Gender</t>
+  </si>
+  <si>
+    <t>Compliance.Gender</t>
+  </si>
+  <si>
+    <t>DWBroadclothBath.dbo.DimFactory.FactoryKey</t>
+  </si>
+  <si>
+    <t>DWBroadclothBath.dbo.DimFactory.Nation</t>
+  </si>
+  <si>
+    <t>Dimension  Column</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Factory.Nation</t>
+  </si>
+  <si>
+    <t>DWBroadclothBath.dbo.DimFactory.City</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Factory.City</t>
+  </si>
+  <si>
+    <t>DWBroadclothBath.dbo.DimFactory.GMTDifference</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Factory.GMTDifference</t>
+  </si>
+  <si>
+    <t>numeric(18)</t>
+  </si>
+  <si>
+    <t>DWBroadclothBath.dbo.DimFactory.MaxWorkers</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Factory.MaxWorkers</t>
+  </si>
+  <si>
+    <t>DWBroadclothBath.dbo.DimFactory.BaseCurrency</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Factory.BaseCurrency</t>
+  </si>
+  <si>
+    <t>DWBroadclothBath.dbo.DimFactor</t>
+  </si>
+  <si>
+    <t>dimension table</t>
+  </si>
+  <si>
+    <t>broadcloth</t>
+  </si>
+  <si>
+    <t>DWBroadClothBatch.dbo.DimItem</t>
+  </si>
+  <si>
+    <t>Dimesion Table</t>
+  </si>
+  <si>
+    <t>DWBroadClothBatch.dbo.DimItem.ItemKey</t>
+  </si>
+  <si>
+    <t>Dimesnion Key Column</t>
+  </si>
+  <si>
+    <t>DWBroadClothBatch.dbo.DimItem.ModelDescription</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Model.ModelDescription</t>
+  </si>
+  <si>
+    <t>nvarchar(250), null</t>
+  </si>
+  <si>
+    <t>DWBroadClothBatch.dbo.DimItem.BasePrice</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Model.BasePrice</t>
+  </si>
+  <si>
+    <t>numeric(9,4)</t>
+  </si>
+  <si>
+    <t>decimal(9,4)</t>
+  </si>
+  <si>
+    <t>DWBroadClothBatch.dbo.DimItem.ListPrice</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Item.ListPrice</t>
+  </si>
+  <si>
+    <t>numeric(38,4)</t>
+  </si>
+  <si>
+    <t>decimal(38,4)</t>
+  </si>
+  <si>
+    <t>DWBroadClothBatch.dbo.DimItem.Color</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.ColorList.Color</t>
+  </si>
+  <si>
+    <t>DWBroadClothBatch.dbo.DimItem.ItemSize</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Item.ItemSize</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1311,8 +1321,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica 65 Medium"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1358,12 +1373,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1528,7 +1537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1585,37 +1594,36 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2194,6 +2202,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B10"/>
@@ -3026,7 +3046,7 @@
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="12.6" customHeight="1">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="58" t="s">
         <v>27</v>
       </c>
       <c r="B47" t="s">
@@ -3040,7 +3060,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="64"/>
+      <c r="A48" s="58"/>
       <c r="C48" t="s">
         <v>60</v>
       </c>
@@ -3120,26 +3140,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.6">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -3318,10 +3338,10 @@
       <c r="E7" t="s">
         <v>255</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="56">
         <v>17875</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="56">
         <v>33725</v>
       </c>
       <c r="H7" t="s">
@@ -3374,10 +3394,10 @@
       <c r="E8" t="s">
         <v>265</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="56">
         <v>19043</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="56">
         <v>33830</v>
       </c>
       <c r="H8" t="s">
@@ -3468,13 +3488,13 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="56">
         <v>35250</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="56">
         <v>35278</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="56">
         <v>35262</v>
       </c>
       <c r="G11">
@@ -3512,13 +3532,13 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="56">
         <v>35251</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="56">
         <v>35293</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="56">
         <v>35256</v>
       </c>
       <c r="G12">
@@ -3547,9 +3567,9 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
@@ -3561,13 +3581,13 @@
       <c r="C14" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
@@ -3582,10 +3602,10 @@
       <c r="D15">
         <v>12</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="57">
         <v>0</v>
       </c>
-      <c r="F15" s="59"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
@@ -3600,15 +3620,15 @@
       <c r="D16">
         <v>10</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="57">
         <v>0</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
@@ -3620,13 +3640,13 @@
       <c r="C18" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="53" t="s">
         <v>176</v>
       </c>
       <c r="G18" t="s">
@@ -3655,7 +3675,7 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="53" t="s">
         <v>283</v>
       </c>
       <c r="F19">
@@ -3687,7 +3707,7 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="53" t="s">
         <v>285</v>
       </c>
       <c r="F20">
@@ -3707,9 +3727,9 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
@@ -3724,8 +3744,8 @@
       <c r="D22" t="s">
         <v>291</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
@@ -3740,8 +3760,8 @@
       <c r="D23" t="s">
         <v>270</v>
       </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
@@ -3756,26 +3776,26 @@
       <c r="D24" t="s">
         <v>270</v>
       </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" spans="1:10" ht="15.6">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
@@ -5679,10 +5699,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A3:E132"/>
+  <dimension ref="A3:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5716,1411 +5736,761 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>228</v>
+      <c r="A5" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="60" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A12" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" customHeight="1">
+      <c r="A13" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="60" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="D25" s="60" t="s">
         <v>296</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="E25" s="60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="D28" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="E28" s="60" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" s="60" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>355</v>
+      </c>
+      <c r="D32" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="60" t="s">
+        <v>356</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>357</v>
+      </c>
+      <c r="D33" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="E33" s="60" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="E35" s="60" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="D41" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="B42" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="D42" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="D43" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="B44" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="D44" s="60" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="38" t="s">
+      <c r="E44" s="60" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="D8" s="38" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="E50" s="60" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="D51" s="60" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="E51" s="60" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A12" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A13" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="37" t="s">
-        <v>312</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="D30" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="B38" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B39" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B44" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>314</v>
-      </c>
-      <c r="B48" t="s">
-        <v>328</v>
-      </c>
-      <c r="D48" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>314</v>
-      </c>
-      <c r="B49" t="s">
-        <v>330</v>
-      </c>
-      <c r="D49" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>331</v>
-      </c>
-      <c r="B50" t="s">
-        <v>332</v>
-      </c>
-      <c r="D50" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>331</v>
-      </c>
-      <c r="B51" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>331</v>
-      </c>
-      <c r="B52" t="s">
-        <v>311</v>
-      </c>
-      <c r="D52" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>331</v>
-      </c>
-      <c r="B53" t="s">
-        <v>306</v>
-      </c>
-      <c r="D53" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>331</v>
-      </c>
-      <c r="B54" t="s">
-        <v>333</v>
-      </c>
-      <c r="D54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>331</v>
-      </c>
-      <c r="B55" t="s">
-        <v>301</v>
-      </c>
-      <c r="D55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>331</v>
-      </c>
-      <c r="B56" t="s">
-        <v>313</v>
-      </c>
-      <c r="D56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>334</v>
-      </c>
-      <c r="B57" t="s">
-        <v>335</v>
-      </c>
-      <c r="D57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>334</v>
-      </c>
-      <c r="B58" t="s">
-        <v>336</v>
-      </c>
-      <c r="D58" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>334</v>
-      </c>
-      <c r="B59" t="s">
-        <v>337</v>
-      </c>
-      <c r="D59" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>334</v>
-      </c>
-      <c r="B60" t="s">
-        <v>339</v>
-      </c>
-      <c r="D60" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>334</v>
-      </c>
-      <c r="B61" t="s">
-        <v>340</v>
-      </c>
-      <c r="D61" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>334</v>
-      </c>
-      <c r="B62" t="s">
-        <v>341</v>
-      </c>
-      <c r="D62" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>342</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="B52" s="60" t="s">
         <v>343</v>
       </c>
-      <c r="D63" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>342</v>
-      </c>
-      <c r="B64" t="s">
-        <v>335</v>
-      </c>
-      <c r="D64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>342</v>
-      </c>
-      <c r="B65" t="s">
-        <v>344</v>
-      </c>
-      <c r="D65" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>342</v>
-      </c>
-      <c r="B66" t="s">
-        <v>297</v>
-      </c>
-      <c r="D66" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>342</v>
-      </c>
-      <c r="B67" t="s">
-        <v>345</v>
-      </c>
-      <c r="D67" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
-        <v>346</v>
-      </c>
-      <c r="B68" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>346</v>
-      </c>
-      <c r="B69" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>346</v>
-      </c>
-      <c r="B70" t="s">
-        <v>343</v>
-      </c>
-      <c r="D70" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>346</v>
-      </c>
-      <c r="B71" t="s">
-        <v>343</v>
-      </c>
-      <c r="D71" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>346</v>
-      </c>
-      <c r="B72" t="s">
-        <v>347</v>
-      </c>
-      <c r="D72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>346</v>
-      </c>
-      <c r="B73" t="s">
-        <v>348</v>
-      </c>
-      <c r="D73" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>349</v>
-      </c>
-      <c r="B74" t="s">
-        <v>332</v>
-      </c>
-      <c r="D74" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>349</v>
-      </c>
-      <c r="B75" t="s">
-        <v>332</v>
-      </c>
-      <c r="D75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>349</v>
-      </c>
-      <c r="B76" t="s">
-        <v>343</v>
-      </c>
-      <c r="D76" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>349</v>
-      </c>
-      <c r="B77" t="s">
-        <v>343</v>
-      </c>
-      <c r="D77" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>349</v>
-      </c>
-      <c r="B78" t="s">
-        <v>350</v>
-      </c>
-      <c r="D78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>349</v>
-      </c>
-      <c r="B79" t="s">
-        <v>351</v>
-      </c>
-      <c r="D79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>349</v>
-      </c>
-      <c r="B80" t="s">
-        <v>352</v>
-      </c>
-      <c r="D80" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
-        <v>349</v>
-      </c>
-      <c r="B81" t="s">
-        <v>353</v>
-      </c>
-      <c r="D81" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
-        <v>349</v>
-      </c>
-      <c r="B82" t="s">
-        <v>354</v>
-      </c>
-      <c r="D82" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
-        <v>349</v>
-      </c>
-      <c r="B83" t="s">
-        <v>355</v>
-      </c>
-      <c r="D83" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
-        <v>349</v>
-      </c>
-      <c r="B84" t="s">
-        <v>356</v>
-      </c>
-      <c r="D84" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
-        <v>349</v>
-      </c>
-      <c r="B85" t="s">
-        <v>357</v>
-      </c>
-      <c r="D85" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
-        <v>349</v>
-      </c>
-      <c r="B86" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="C52" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="D52" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E52" s="60" t="s">
         <v>359</v>
-      </c>
-      <c r="D87" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
-        <v>358</v>
-      </c>
-      <c r="B88" t="s">
-        <v>360</v>
-      </c>
-      <c r="D88" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
-        <v>358</v>
-      </c>
-      <c r="B89" t="s">
-        <v>117</v>
-      </c>
-      <c r="D89" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
-        <v>358</v>
-      </c>
-      <c r="B90" t="s">
-        <v>332</v>
-      </c>
-      <c r="D90" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
-        <v>358</v>
-      </c>
-      <c r="B91" t="s">
-        <v>361</v>
-      </c>
-      <c r="D91" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>358</v>
-      </c>
-      <c r="B92" t="s">
-        <v>201</v>
-      </c>
-      <c r="D92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>358</v>
-      </c>
-      <c r="B93" t="s">
-        <v>202</v>
-      </c>
-      <c r="D93" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>358</v>
-      </c>
-      <c r="B94" t="s">
-        <v>362</v>
-      </c>
-      <c r="D94" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>358</v>
-      </c>
-      <c r="B95" t="s">
-        <v>363</v>
-      </c>
-      <c r="D95" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>358</v>
-      </c>
-      <c r="B96" t="s">
-        <v>364</v>
-      </c>
-      <c r="D96" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>358</v>
-      </c>
-      <c r="B97" t="s">
-        <v>365</v>
-      </c>
-      <c r="D97" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>358</v>
-      </c>
-      <c r="B98" t="s">
-        <v>366</v>
-      </c>
-      <c r="D98" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>358</v>
-      </c>
-      <c r="B99" t="s">
-        <v>367</v>
-      </c>
-      <c r="D99" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>358</v>
-      </c>
-      <c r="B100" t="s">
-        <v>368</v>
-      </c>
-      <c r="D100" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>358</v>
-      </c>
-      <c r="B101" t="s">
-        <v>369</v>
-      </c>
-      <c r="D101" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
-        <v>371</v>
-      </c>
-      <c r="B102" t="s">
-        <v>359</v>
-      </c>
-      <c r="D102" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
-        <v>371</v>
-      </c>
-      <c r="B103" t="s">
-        <v>359</v>
-      </c>
-      <c r="D103" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
-        <v>371</v>
-      </c>
-      <c r="B104" t="s">
-        <v>343</v>
-      </c>
-      <c r="D104" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
-        <v>371</v>
-      </c>
-      <c r="B105" t="s">
-        <v>343</v>
-      </c>
-      <c r="D105" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
-        <v>371</v>
-      </c>
-      <c r="B106" t="s">
-        <v>372</v>
-      </c>
-      <c r="D106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>371</v>
-      </c>
-      <c r="B107" t="s">
-        <v>171</v>
-      </c>
-      <c r="D107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
-        <v>373</v>
-      </c>
-      <c r="B108" t="s">
-        <v>373</v>
-      </c>
-      <c r="D108" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>374</v>
-      </c>
-      <c r="B109" t="s">
-        <v>375</v>
-      </c>
-      <c r="D109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>374</v>
-      </c>
-      <c r="B110" t="s">
-        <v>376</v>
-      </c>
-      <c r="D110" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
-        <v>374</v>
-      </c>
-      <c r="B111" t="s">
-        <v>332</v>
-      </c>
-      <c r="D111" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
-        <v>374</v>
-      </c>
-      <c r="B112" t="s">
-        <v>301</v>
-      </c>
-      <c r="D112" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
-        <v>374</v>
-      </c>
-      <c r="B113" t="s">
-        <v>377</v>
-      </c>
-      <c r="D113" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
-        <v>378</v>
-      </c>
-      <c r="B114" t="s">
-        <v>375</v>
-      </c>
-      <c r="D114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
-        <v>378</v>
-      </c>
-      <c r="B115" t="s">
-        <v>375</v>
-      </c>
-      <c r="D115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
-        <v>378</v>
-      </c>
-      <c r="B116" t="s">
-        <v>379</v>
-      </c>
-      <c r="D116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
-        <v>378</v>
-      </c>
-      <c r="B117" t="s">
-        <v>380</v>
-      </c>
-      <c r="D117" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
-        <v>378</v>
-      </c>
-      <c r="B118" t="s">
-        <v>381</v>
-      </c>
-      <c r="D118" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
-        <v>378</v>
-      </c>
-      <c r="B119" t="s">
-        <v>383</v>
-      </c>
-      <c r="D119" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
-        <v>378</v>
-      </c>
-      <c r="B120" t="s">
-        <v>384</v>
-      </c>
-      <c r="D120" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
-        <v>378</v>
-      </c>
-      <c r="B121" t="s">
-        <v>386</v>
-      </c>
-      <c r="D121" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
-        <v>378</v>
-      </c>
-      <c r="B122" t="s">
-        <v>387</v>
-      </c>
-      <c r="D122" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
-        <v>388</v>
-      </c>
-      <c r="B123" t="s">
-        <v>389</v>
-      </c>
-      <c r="D123" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>388</v>
-      </c>
-      <c r="B124" t="s">
-        <v>391</v>
-      </c>
-      <c r="D124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>388</v>
-      </c>
-      <c r="B125" t="s">
-        <v>392</v>
-      </c>
-      <c r="D125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>388</v>
-      </c>
-      <c r="B126" t="s">
-        <v>393</v>
-      </c>
-      <c r="D126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" t="s">
-        <v>388</v>
-      </c>
-      <c r="B127" t="s">
-        <v>394</v>
-      </c>
-      <c r="D127" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" t="s">
-        <v>396</v>
-      </c>
-      <c r="B128" t="s">
-        <v>375</v>
-      </c>
-      <c r="D128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" t="s">
-        <v>396</v>
-      </c>
-      <c r="B129" t="s">
-        <v>375</v>
-      </c>
-      <c r="D129" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
-        <v>396</v>
-      </c>
-      <c r="B130" t="s">
-        <v>373</v>
-      </c>
-      <c r="D130" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
-        <v>396</v>
-      </c>
-      <c r="B131" t="s">
-        <v>373</v>
-      </c>
-      <c r="D131" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" t="s">
-        <v>396</v>
-      </c>
-      <c r="B132" t="s">
-        <v>397</v>
-      </c>
-      <c r="D132" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -7130,6 +6500,788 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED376D-23A6-4054-9812-A1125864D512}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection sqref="A1:E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>331</v>
+      </c>
+      <c r="B17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="59" t="s">
+        <v>338</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="59" t="s">
+        <v>349</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="60" customFormat="1"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D26" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="B27" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="D27" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="E28" s="59" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="59" t="s">
+        <v>362</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="B32" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="60" customFormat="1">
+      <c r="A34" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>369</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" s="60" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="60" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>373</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="60" t="s">
+        <v>375</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="D40" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="60" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="60" t="s">
+        <v>382</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="60" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>385</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="D44" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="E44" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="F44" s="60"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="60" t="s">
+        <v>389</v>
+      </c>
+      <c r="B45" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="D45" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="E45" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="F45" s="60"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>394</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="E46" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="F46" s="60"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="60"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="B48" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C48" s="60" t="s">
+        <v>400</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="F48" s="60"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:E27"/>
   <sheetViews>
@@ -7147,198 +7299,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="17.399999999999999">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="47" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="57"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7346,7 +7498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:C30"/>
   <sheetViews>
@@ -7368,165 +7520,153 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/BISolutionWorksheets.xlsx
+++ b/BISolutionWorksheets.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cornel Amler\Documents\GitHub\INFO3300_Learn_By_Doing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\INFO3300_Learn_By_Doing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="22980" windowHeight="12108" tabRatio="641" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="22980" windowHeight="12105" tabRatio="641" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Members" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="412">
   <si>
     <t>Object Name</t>
   </si>
@@ -1231,6 +1231,39 @@
   </si>
   <si>
     <t>Broadcloth.dbo.Item.ItemSize</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Item</t>
+  </si>
+  <si>
+    <t>DWBroadclothBatch.dbo.Order</t>
+  </si>
+  <si>
+    <t>Broadcloth.dbo.Order</t>
+  </si>
+  <si>
+    <t>Order.OrderKey</t>
+  </si>
+  <si>
+    <t>Dimension Key</t>
+  </si>
+  <si>
+    <t>Order.DeliveryNation</t>
+  </si>
+  <si>
+    <t>Order.DeliveryState</t>
+  </si>
+  <si>
+    <t>Order.DeliveryCity</t>
+  </si>
+  <si>
+    <t>Order.PriceAdjustment</t>
+  </si>
+  <si>
+    <t>Order.Currency</t>
+  </si>
+  <si>
+    <t>Order.OrderCurrency</t>
   </si>
 </sst>
 </file>
@@ -1327,7 +1360,7 @@
       <name val="Helvetica 65 Medium"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1390,6 +1423,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,7 +1576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1616,14 +1655,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1646,19 +1690,19 @@
       <numFmt numFmtId="29" formatCode="mm:ss.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2134,11 +2178,11 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2208,7 +2252,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2222,10 +2266,10 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -2313,10 +2357,10 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -2377,7 +2421,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -2457,7 +2501,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="31" t="s">
         <v>25</v>
       </c>
@@ -2499,7 +2543,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" ht="28.8">
+    <row r="10" spans="1:12" ht="30">
       <c r="A10" s="16" t="s">
         <v>27</v>
       </c>
@@ -2542,13 +2586,13 @@
       <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
-    <col min="3" max="3" width="53.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="53.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -3046,7 +3090,7 @@
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="12.6" customHeight="1">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="63" t="s">
         <v>27</v>
       </c>
       <c r="B47" t="s">
@@ -3060,7 +3104,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="58"/>
+      <c r="A48" s="63"/>
       <c r="C48" t="s">
         <v>60</v>
       </c>
@@ -3118,28 +3162,28 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" customWidth="1"/>
-    <col min="17" max="17" width="11.21875" customWidth="1"/>
-    <col min="18" max="18" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.6">
+    <row r="1" spans="1:18" ht="15.75">
       <c r="A1" s="54" t="s">
         <v>281</v>
       </c>
@@ -3784,7 +3828,7 @@
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
     </row>
-    <row r="26" spans="1:10" ht="15.6">
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="54" t="s">
         <v>115</v>
       </c>
@@ -5699,21 +5743,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A3:E52"/>
+  <dimension ref="A3:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="18">
+    <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -5722,7 +5766,7 @@
       <c r="A4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="64" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="35" t="s">
@@ -5736,766 +5780,875 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="59" t="s">
         <v>303</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="59" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="59" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="66" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="66" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="66" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="66" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="66" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A12" s="60" t="s">
+    <row r="12" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A12" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="66" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.4" customHeight="1">
-      <c r="A13" s="60" t="s">
+    <row r="13" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A13" s="66" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="66" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="66" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="65" t="s">
         <v>326</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="66" t="s">
         <v>328</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="66" t="s">
         <v>333</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="66" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
+      <c r="A22" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="B23" s="60" t="s">
+      <c r="A23" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="66" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C24" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="66" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="66" t="s">
+        <v>350</v>
+      </c>
+      <c r="D27" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="D23" s="60" t="s">
+      <c r="C28" s="59" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E28" s="59" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="B24" s="60" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="66" t="s">
+        <v>353</v>
+      </c>
+      <c r="B29" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C29" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D29" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E29" s="66" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="B25" s="60" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="66" t="s">
+        <v>354</v>
+      </c>
+      <c r="B30" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="C25" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="D25" s="60" t="s">
+      <c r="C30" s="66" t="s">
+        <v>355</v>
+      </c>
+      <c r="D30" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E30" s="66" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="B26" s="60" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="B31" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="C26" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="D26" s="60" t="s">
+      <c r="C31" s="66" t="s">
+        <v>357</v>
+      </c>
+      <c r="D31" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="E31" s="66" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>363</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>299</v>
+      </c>
+      <c r="E33" s="66" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="59" t="s">
+        <v>379</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="D38" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>376</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="D41" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E41" s="66" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="B27" s="60" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>300</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>385</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="66" t="s">
+        <v>386</v>
+      </c>
+      <c r="B44" s="65" t="s">
         <v>343</v>
       </c>
-      <c r="C27" s="60" t="s">
-        <v>348</v>
-      </c>
-      <c r="D27" s="60" t="s">
+      <c r="C44" s="66" t="s">
+        <v>387</v>
+      </c>
+      <c r="D44" s="66" t="s">
+        <v>388</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="66" t="s">
+        <v>389</v>
+      </c>
+      <c r="B45" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>390</v>
+      </c>
+      <c r="D45" s="66" t="s">
+        <v>391</v>
+      </c>
+      <c r="E45" s="66" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="66" t="s">
+        <v>393</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>394</v>
+      </c>
+      <c r="D46" s="66" t="s">
+        <v>395</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="66" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>398</v>
+      </c>
+      <c r="D47" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="66" t="s">
+        <v>399</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>400</v>
+      </c>
+      <c r="D48" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="E48" s="66" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="B49" s="59" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="D49" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="66" t="s">
+        <v>404</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>405</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="D50" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="E50" s="66" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="66" t="s">
+        <v>406</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="C51" s="66" t="s">
+        <v>406</v>
+      </c>
+      <c r="D51" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="E51" s="66" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="66" t="s">
+        <v>407</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>407</v>
+      </c>
+      <c r="D52" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="B53" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="C53" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="D53" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E53" s="66" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="60" t="s">
-        <v>349</v>
-      </c>
-      <c r="B28" s="60" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="66" t="s">
+        <v>409</v>
+      </c>
+      <c r="B54" s="66" t="s">
         <v>343</v>
       </c>
-      <c r="C28" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="D28" s="60" t="s">
+      <c r="C54" s="66" t="s">
+        <v>409</v>
+      </c>
+      <c r="D54" s="66" t="s">
+        <v>395</v>
+      </c>
+      <c r="E54" s="66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="66" t="s">
+        <v>410</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="C55" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="D55" s="66" t="s">
         <v>297</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E55" s="66" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="D30" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="E30" s="60" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="B31" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="D31" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="E31" s="60" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C32" s="60" t="s">
-        <v>355</v>
-      </c>
-      <c r="D32" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="60" t="s">
-        <v>356</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="D33" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="E33" s="60" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="60" t="s">
-        <v>360</v>
-      </c>
-      <c r="B34" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C34" s="60" t="s">
-        <v>361</v>
-      </c>
-      <c r="D34" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="60" t="s">
-        <v>362</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>363</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="E35" s="60" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="60" t="s">
-        <v>364</v>
-      </c>
-      <c r="B36" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="D36" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="E36" s="60" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="60" t="s">
-        <v>379</v>
-      </c>
-      <c r="B38" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>381</v>
-      </c>
-      <c r="D38" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="E38" s="60" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="60" t="s">
-        <v>366</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="60" t="s">
-        <v>367</v>
-      </c>
-      <c r="B40" s="61" t="s">
-        <v>368</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>369</v>
-      </c>
-      <c r="D40" s="60" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="B41" s="61" t="s">
-        <v>368</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>371</v>
-      </c>
-      <c r="D41" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="60" t="s">
-        <v>372</v>
-      </c>
-      <c r="B42" s="61" t="s">
-        <v>368</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>373</v>
-      </c>
-      <c r="D42" s="60" t="s">
-        <v>374</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="60" t="s">
-        <v>375</v>
-      </c>
-      <c r="B43" s="61" t="s">
-        <v>368</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="D43" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="60" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="B44" s="61" t="s">
-        <v>368</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="60" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="60" t="s">
-        <v>382</v>
-      </c>
-      <c r="B46" s="60" t="s">
-        <v>383</v>
-      </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="B47" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="B48" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>387</v>
-      </c>
-      <c r="D48" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="60" t="s">
-        <v>389</v>
-      </c>
-      <c r="B49" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>391</v>
-      </c>
-      <c r="E49" s="60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="B50" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="D50" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="E50" s="60" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="60" t="s">
-        <v>397</v>
-      </c>
-      <c r="B51" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>398</v>
-      </c>
-      <c r="D51" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51" s="60" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="60" t="s">
-        <v>399</v>
-      </c>
-      <c r="B52" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="C52" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="E52" s="60" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6507,9 +6660,9 @@
       <selection sqref="A1:E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6713,7 +6866,7 @@
       <c r="D12" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="59" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6730,7 +6883,7 @@
       <c r="D13" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="59" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6747,7 +6900,7 @@
       <c r="D14" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="59" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6764,7 +6917,7 @@
       <c r="D15" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="59" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6781,7 +6934,7 @@
       <c r="D16" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="59" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6798,482 +6951,482 @@
       <c r="D17" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="59" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="58" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="58" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="58" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="58" t="s">
         <v>345</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="58" t="s">
         <v>346</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="58" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="58" t="s">
         <v>347</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="58" t="s">
         <v>350</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="58" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="60" customFormat="1"/>
+    <row r="25" spans="1:5" s="59" customFormat="1"/>
     <row r="26" spans="1:5">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="58" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="58" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="58" t="s">
         <v>354</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="58" t="s">
         <v>355</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="58" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>357</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="58" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="58" t="s">
         <v>361</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="58" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="58" t="s">
         <v>362</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>363</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="58" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="58" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="60" customFormat="1">
-      <c r="A34" s="60" t="s">
+    <row r="34" spans="1:6" s="59" customFormat="1">
+      <c r="A34" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="B34" s="60" t="s">
+      <c r="B34" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="59" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="62" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="D36" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="59" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="59" t="s">
         <v>371</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="60" t="s">
+      <c r="E37" s="59" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="59" t="s">
         <v>372</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="59" t="s">
         <v>373</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="59" t="s">
         <v>374</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="59" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="D39" s="60" t="s">
+      <c r="D39" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="60" t="s">
+      <c r="E39" s="59" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="59" t="s">
         <v>377</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="60" t="s">
         <v>368</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="59" t="s">
         <v>378</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="59" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="60" t="s">
+      <c r="A42" s="59" t="s">
         <v>382</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="59" t="s">
         <v>383</v>
       </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="60" t="s">
+      <c r="A43" s="59" t="s">
         <v>384</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="59" t="s">
         <v>386</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="C44" s="60" t="s">
+      <c r="C44" s="59" t="s">
         <v>387</v>
       </c>
-      <c r="D44" s="60" t="s">
+      <c r="D44" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="F44" s="60"/>
+      <c r="F44" s="59"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="59" t="s">
         <v>389</v>
       </c>
-      <c r="B45" s="60" t="s">
+      <c r="B45" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="59" t="s">
         <v>390</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="59" t="s">
         <v>391</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="59" t="s">
         <v>392</v>
       </c>
-      <c r="F45" s="60"/>
+      <c r="F45" s="59"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="60" t="s">
+      <c r="A46" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B46" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="59" t="s">
         <v>394</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D46" s="59" t="s">
         <v>395</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="59" t="s">
         <v>396</v>
       </c>
-      <c r="F46" s="60"/>
+      <c r="F46" s="59"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="59" t="s">
         <v>397</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="D47" s="60" t="s">
+      <c r="D47" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="60" t="s">
+      <c r="E47" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="60"/>
+      <c r="F47" s="59"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="60" t="s">
+      <c r="A48" s="59" t="s">
         <v>399</v>
       </c>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="59" t="s">
         <v>400</v>
       </c>
-      <c r="D48" s="60" t="s">
+      <c r="D48" s="59" t="s">
         <v>358</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="59" t="s">
         <v>359</v>
       </c>
-      <c r="F48" s="60"/>
+      <c r="F48" s="59"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7289,16 +7442,16 @@
       <selection activeCell="E27" sqref="A4:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="17.399999999999999">
+    <row r="2" spans="1:5" ht="18">
       <c r="A2" s="37" t="s">
         <v>110</v>
       </c>
@@ -7506,14 +7659,14 @@
       <selection activeCell="C30" sqref="A4:C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="18">
+    <row r="2" spans="1:3" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>

--- a/BISolutionWorksheets.xlsx
+++ b/BISolutionWorksheets.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="416">
   <si>
     <t>Object Name</t>
   </si>
@@ -1264,13 +1264,25 @@
   </si>
   <si>
     <t>Order.OrderCurrency</t>
+  </si>
+  <si>
+    <t>WorkerCheck.Age</t>
+  </si>
+  <si>
+    <t>WorkerCheck.Gender</t>
+  </si>
+  <si>
+    <t>DimCompliance.AverageAge</t>
+  </si>
+  <si>
+    <t>DimCompliance.PercentFemale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,6 +1370,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica 65 Medium"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica 65 Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1576,7 +1618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1632,7 +1674,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1663,11 +1704,13 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3090,7 +3133,7 @@
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="12.6" customHeight="1">
-      <c r="A47" s="63" t="s">
+      <c r="A47" s="62" t="s">
         <v>27</v>
       </c>
       <c r="B47" t="s">
@@ -3104,7 +3147,7 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="63"/>
+      <c r="A48" s="62"/>
       <c r="C48" t="s">
         <v>60</v>
       </c>
@@ -3184,26 +3227,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -3382,10 +3425,10 @@
       <c r="E7" t="s">
         <v>255</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="55">
         <v>17875</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="55">
         <v>33725</v>
       </c>
       <c r="H7" t="s">
@@ -3438,10 +3481,10 @@
       <c r="E8" t="s">
         <v>265</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="55">
         <v>19043</v>
       </c>
-      <c r="G8" s="56">
+      <c r="G8" s="55">
         <v>33830</v>
       </c>
       <c r="H8" t="s">
@@ -3532,13 +3575,13 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="55">
         <v>35250</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="55">
         <v>35278</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="55">
         <v>35262</v>
       </c>
       <c r="G11">
@@ -3576,13 +3619,13 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="55">
         <v>35251</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="55">
         <v>35293</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="55">
         <v>35256</v>
       </c>
       <c r="G12">
@@ -3611,9 +3654,9 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
@@ -3625,13 +3668,13 @@
       <c r="C14" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="52"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
@@ -3646,10 +3689,10 @@
       <c r="D15">
         <v>12</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="56">
         <v>0</v>
       </c>
-      <c r="F15" s="53"/>
+      <c r="F15" s="52"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
@@ -3664,15 +3707,15 @@
       <c r="D16">
         <v>10</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="56">
         <v>0</v>
       </c>
-      <c r="F16" s="53"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
@@ -3684,13 +3727,13 @@
       <c r="C18" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="52" t="s">
         <v>176</v>
       </c>
       <c r="G18" t="s">
@@ -3719,7 +3762,7 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="52" t="s">
         <v>283</v>
       </c>
       <c r="F19">
@@ -3751,7 +3794,7 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="52" t="s">
         <v>285</v>
       </c>
       <c r="F20">
@@ -3771,9 +3814,9 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
@@ -3788,8 +3831,8 @@
       <c r="D22" t="s">
         <v>291</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
@@ -3804,8 +3847,8 @@
       <c r="D23" t="s">
         <v>270</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
@@ -3820,26 +3863,26 @@
       <c r="D24" t="s">
         <v>270</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
@@ -5743,906 +5786,873 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A3:E55"/>
+  <dimension ref="A3:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" style="64" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="18.75">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="63" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="65" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="65" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="64" t="s">
         <v>308</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="64" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="64" t="s">
         <v>301</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="64" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="64" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="67" t="s">
         <v>374</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="67" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="67" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="67" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="67" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="67" t="s">
         <v>316</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="67" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="67" t="s">
         <v>324</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="67" t="s">
         <v>324</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="67" t="s">
         <v>334</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="67" t="s">
         <v>328</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="67" t="s">
         <v>330</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="64" t="s">
         <v>337</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="64" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="67" t="s">
         <v>338</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="67" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="67" t="s">
         <v>344</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="67" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="67" t="s">
         <v>345</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="67" t="s">
         <v>346</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="67" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="67" t="s">
         <v>347</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="67" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="67" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="67" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="64" t="s">
         <v>351</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="64" t="s">
         <v>336</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="64" t="s">
         <v>352</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="64" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="67" t="s">
         <v>353</v>
       </c>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="67" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="66" t="s">
-        <v>354</v>
-      </c>
-      <c r="B30" s="65" t="s">
+      <c r="A30" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="B30" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="C30" s="66" t="s">
-        <v>355</v>
-      </c>
-      <c r="D30" s="66" t="s">
+      <c r="C30" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="E30" s="67" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="67" t="s">
+        <v>414</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="E31" s="67" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="67" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" s="67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="B33" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="C33" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="B34" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="D35" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E35" s="67" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="66" t="s">
-        <v>356</v>
-      </c>
-      <c r="B31" s="65" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" s="67" t="s">
+        <v>370</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="67" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>374</v>
+      </c>
+      <c r="E37" s="67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>376</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="67" t="s">
+        <v>377</v>
+      </c>
+      <c r="B39" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="E40" s="69" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="E41" s="67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="B42" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="C31" s="66" t="s">
-        <v>357</v>
-      </c>
-      <c r="D31" s="66" t="s">
+      <c r="C42" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="E42" s="67" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="E43" s="67" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="67" t="s">
+        <v>393</v>
+      </c>
+      <c r="B44" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>394</v>
+      </c>
+      <c r="D44" s="67" t="s">
+        <v>395</v>
+      </c>
+      <c r="E44" s="67" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="67" t="s">
+        <v>397</v>
+      </c>
+      <c r="B45" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>398</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="67" t="s">
+        <v>399</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>400</v>
+      </c>
+      <c r="D46" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E46" s="67" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="B32" s="65" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C47" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>307</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="B48" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="E48" s="67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="B49" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="66" t="s">
-        <v>361</v>
-      </c>
-      <c r="D32" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E32" s="66" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="66" t="s">
-        <v>362</v>
-      </c>
-      <c r="B33" s="65" t="s">
+      <c r="C49" s="67" t="s">
+        <v>406</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="E49" s="67" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="67" t="s">
+        <v>407</v>
+      </c>
+      <c r="B50" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="C33" s="66" t="s">
-        <v>363</v>
-      </c>
-      <c r="D33" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="E33" s="66" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="B34" s="65" t="s">
+      <c r="C50" s="67" t="s">
+        <v>407</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="67" t="s">
+        <v>408</v>
+      </c>
+      <c r="B51" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="C34" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="D34" s="66" t="s">
-        <v>298</v>
-      </c>
-      <c r="E34" s="66" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="59" t="s">
-        <v>379</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="C35" s="59" t="s">
-        <v>381</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="B36" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="C37" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="E37" s="65" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="C38" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="D38" s="66" t="s">
+      <c r="C51" s="67" t="s">
+        <v>408</v>
+      </c>
+      <c r="D51" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E51" s="67" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="B39" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="C39" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="D39" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="E39" s="66" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="B40" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>376</v>
-      </c>
-      <c r="D40" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="66" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="B41" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="C41" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="D41" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" s="66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="59" t="s">
-        <v>382</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="C42" s="67" t="s">
-        <v>401</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>300</v>
-      </c>
-      <c r="E42" s="67" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="66" t="s">
-        <v>384</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>385</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="D43" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="E43" s="66" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="66" t="s">
-        <v>386</v>
-      </c>
-      <c r="B44" s="65" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" s="67" t="s">
+        <v>409</v>
+      </c>
+      <c r="B52" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="C44" s="66" t="s">
-        <v>387</v>
-      </c>
-      <c r="D44" s="66" t="s">
-        <v>388</v>
-      </c>
-      <c r="E44" s="66" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="B45" s="65" t="s">
+      <c r="C52" s="67" t="s">
+        <v>409</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>395</v>
+      </c>
+      <c r="E52" s="67" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="B53" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="C45" s="66" t="s">
-        <v>390</v>
-      </c>
-      <c r="D45" s="66" t="s">
-        <v>391</v>
-      </c>
-      <c r="E45" s="66" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="66" t="s">
-        <v>393</v>
-      </c>
-      <c r="B46" s="65" t="s">
-        <v>343</v>
-      </c>
-      <c r="C46" s="66" t="s">
-        <v>394</v>
-      </c>
-      <c r="D46" s="66" t="s">
-        <v>395</v>
-      </c>
-      <c r="E46" s="66" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="B47" s="65" t="s">
-        <v>343</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>398</v>
-      </c>
-      <c r="D47" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47" s="66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="66" t="s">
-        <v>399</v>
-      </c>
-      <c r="B48" s="65" t="s">
-        <v>343</v>
-      </c>
-      <c r="C48" s="66" t="s">
-        <v>400</v>
-      </c>
-      <c r="D48" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E48" s="66" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="59" t="s">
-        <v>402</v>
-      </c>
-      <c r="B49" s="59" t="s">
-        <v>336</v>
-      </c>
-      <c r="C49" s="59" t="s">
-        <v>403</v>
-      </c>
-      <c r="D49" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="E49" s="59" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="66" t="s">
-        <v>404</v>
-      </c>
-      <c r="B50" s="66" t="s">
-        <v>405</v>
-      </c>
-      <c r="C50" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="D50" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="E50" s="66" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="66" t="s">
-        <v>406</v>
-      </c>
-      <c r="B51" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="C51" s="66" t="s">
-        <v>406</v>
-      </c>
-      <c r="D51" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="E51" s="66" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="66" t="s">
-        <v>407</v>
-      </c>
-      <c r="B52" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="C52" s="66" t="s">
-        <v>407</v>
-      </c>
-      <c r="D52" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="E52" s="66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="B53" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="C53" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="D53" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="66" t="s">
-        <v>409</v>
-      </c>
-      <c r="B54" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="C54" s="66" t="s">
-        <v>409</v>
-      </c>
-      <c r="D54" s="66" t="s">
-        <v>395</v>
-      </c>
-      <c r="E54" s="66" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="B55" s="66" t="s">
-        <v>343</v>
-      </c>
-      <c r="C55" s="66" t="s">
+      <c r="C53" s="67" t="s">
         <v>411</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="D53" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="E53" s="67" t="s">
         <v>297</v>
       </c>
     </row>
@@ -6866,7 +6876,7 @@
       <c r="D12" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="58" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6883,7 +6893,7 @@
       <c r="D13" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="58" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6900,7 +6910,7 @@
       <c r="D14" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="58" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6917,7 +6927,7 @@
       <c r="D15" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="58" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6934,7 +6944,7 @@
       <c r="D16" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="58" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6951,482 +6961,482 @@
       <c r="D17" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="58" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="57" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="57" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="57" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="57" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="57" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="57" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="59" customFormat="1"/>
+    <row r="25" spans="1:5" s="58" customFormat="1"/>
     <row r="26" spans="1:5">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="D26" s="58" t="s">
+      <c r="D26" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="E26" s="58" t="s">
+      <c r="E26" s="57" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="57" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="57" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="57" t="s">
         <v>356</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="57" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="57" t="s">
         <v>361</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D30" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="57" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="57" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="57" t="s">
         <v>364</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D32" s="57" t="s">
         <v>298</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="57" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="59" customFormat="1">
-      <c r="A34" s="59" t="s">
+    <row r="34" spans="1:6" s="58" customFormat="1">
+      <c r="A34" s="58" t="s">
         <v>379</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="58" t="s">
         <v>380</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="58" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="58" t="s">
         <v>366</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="61" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C36" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="E36" s="59" t="s">
+      <c r="E36" s="58" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="58" t="s">
         <v>370</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="58" t="s">
         <v>371</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="58" t="s">
         <v>374</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="58" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="58" t="s">
         <v>375</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="58" t="s">
         <v>376</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="58" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="59" t="s">
         <v>368</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="58" t="s">
         <v>378</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="58" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="58" t="s">
         <v>382</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="58" t="s">
         <v>384</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="58" t="s">
         <v>386</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="58" t="s">
         <v>388</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="58" t="s">
         <v>388</v>
       </c>
-      <c r="F44" s="59"/>
+      <c r="F44" s="58"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="58" t="s">
         <v>390</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="58" t="s">
         <v>392</v>
       </c>
-      <c r="F45" s="59"/>
+      <c r="F45" s="58"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="58" t="s">
         <v>393</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="58" t="s">
         <v>395</v>
       </c>
-      <c r="E46" s="59" t="s">
+      <c r="E46" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="F46" s="59"/>
+      <c r="F46" s="58"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="58" t="s">
         <v>397</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="58" t="s">
         <v>398</v>
       </c>
-      <c r="D47" s="59" t="s">
+      <c r="D47" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="E47" s="59" t="s">
+      <c r="E47" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="F47" s="59"/>
+      <c r="F47" s="58"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="58" t="s">
         <v>358</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="58" t="s">
         <v>359</v>
       </c>
-      <c r="F48" s="59"/>
+      <c r="F48" s="58"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7452,198 +7462,198 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="51"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7673,150 +7683,150 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
